--- a/Chapter 3/Ch03_Sellmore.xlsx
+++ b/Chapter 3/Ch03_Sellmore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vafa.saboorideilami/Documents/5509/Chapter 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DC3762-326B-9145-8F04-A4D41B0A3F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92E5F5A-B655-0440-A160-BD722EA2DB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2000" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sellmore" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,9 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sellmore!$D$28:$G$28</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sellmore!$H$24:$H$27</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sellmore!$F$26:$F$27</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sellmore!$D$24:$G$27</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sellmore!$D$28:$G$28</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sellmore!$H$24:$H$27</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sellmore!$E$26:$E$27</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sellmore!$F$26:$F$27</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
@@ -40,19 +40,19 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sellmore!$J$30</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Demand</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Supply</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Demand</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Supply</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1363,14 +1363,14 @@
         <v>0</v>
       </c>
       <c r="F24" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="31">
         <v>0</v>
       </c>
       <c r="H24" s="17">
         <f>SUM(D24:G24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>3</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="33">
         <v>0</v>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="H25" s="17">
         <f>SUM(D25:G25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>3</v>
@@ -1423,11 +1423,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="17">
         <f>SUM(D26:G26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>3</v>
@@ -1441,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="36">
         <v>0</v>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="H27" s="17">
         <f>SUM(D27:G27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>3</v>
@@ -1469,19 +1469,19 @@
       </c>
       <c r="D28" s="17">
         <f>SUM(D24:D27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="17">
         <f>SUM(E24:E27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="17">
         <f>SUM(F24:F27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="17">
         <f>SUM(G24:G27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="J30" s="26">
         <f>SUMPRODUCT(Cost,Assignment)</f>
-        <v>0</v>
+        <v>1957</v>
       </c>
     </row>
   </sheetData>
